--- a/public/img/sample-product-import.xlsx
+++ b/public/img/sample-product-import.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\leniscrm\public\img\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{987E08EE-EBC5-4EBE-AB88-5ECC5A775FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A955F7-6139-4EB0-8FF7-90033ABB07C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>XF003</t>
   </si>
@@ -68,6 +68,12 @@
   </si>
   <si>
     <t>Micro Chip</t>
+  </si>
+  <si>
+    <t>Para Birimi</t>
+  </si>
+  <si>
+    <t>TRY</t>
   </si>
 </sst>
 </file>
@@ -445,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,9 +465,10 @@
     <col min="4" max="6" width="12.140625" customWidth="1"/>
     <col min="7" max="7" width="8.140625" customWidth="1"/>
     <col min="8" max="8" width="20.28515625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -486,8 +493,11 @@
       <c r="H1" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="I1" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -512,8 +522,11 @@
       <c r="H2" s="4">
         <v>124.66</v>
       </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -533,6 +546,9 @@
       </c>
       <c r="H3" s="4">
         <v>2548.98</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
